--- a/Statistical analyses/Tukey posthoc/alkane/alkane, timePoint x Vegetation, groups, annotated.xlsx
+++ b/Statistical analyses/Tukey posthoc/alkane/alkane, timePoint x Vegetation, groups, annotated.xlsx
@@ -22,16 +22,16 @@
     <t>labels</t>
   </si>
   <si>
-    <t>0 x Shrub</t>
-  </si>
-  <si>
-    <t>3 x Shrub</t>
-  </si>
-  <si>
-    <t>5 x Shrub</t>
-  </si>
-  <si>
-    <t>6 x Shrub</t>
+    <t>0 x CSS</t>
+  </si>
+  <si>
+    <t>3 x CSS</t>
+  </si>
+  <si>
+    <t>5 x CSS</t>
+  </si>
+  <si>
+    <t>6 x CSS</t>
   </si>
   <si>
     <t>5 x Grassland</t>
